--- a/finetuning/it_datasets/it_dataset/it_zarzis_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_zarzis_dataset.xlsx
@@ -654,9 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Restaurant El Bibane located at Plage sonia zarzis, 4170, Zarzis. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 12:00-16:00, 19:00-23:00. To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, visit their website at  or call them at 99 242 403.</t>
+          <t>Restaurant El Bibane is located in Zarzis, Tunisia, with the coordinates (33.5298945, 11.0882724). It offers a variety of dishes, with a focus on seafood. The restaurant is highly rated, with 4.3 stars out of 5, with positive reviews mentioning the quality of the food, the service, and the view.</t>
         </is>
       </c>
     </row>
@@ -759,7 +757,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Pizza Bab Elhara located at G436+R9Q Pizza Bab Elhara, Zarzis. This top-rated destination is perfect for Pizzeria lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 12:00-22:00, but closed on lundi. To get there, use these GPS coordinates: 31.446514, 31.68038. For more details, visit their website at https://www.google.com/maps/place/Pizza+Bab+Elhara/data=!4m7!3m6!1s0x13aaef092ba918f3:0x4803d2318bdeb218!8m2!3d33.5045977!4d11.1109831!16s%2Fg%2F1q69x7dp7!19sChIJ8xipKwnvqhMRGLLeizHSA0g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 204 003.</t>
+          <t>Pizza Bab Elhara is a pizzeria located in Zarzis, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The pizzeria is open every day from 12:00 pm to 10:00 pm, except on Mondays. It is located at G436+R9Q, Pizza Bab Elhara, Zarzis.</t>
         </is>
       </c>
     </row>
@@ -866,9 +864,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in Zarzis and looking for a quick bite, try CHICKEN STREET located at Av. Mohamed V. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of categories to choose from, including Restaurant de volaille, Restaurant specialise dans les ailes de poulet, Restaurant familial, Poulet frit a emporter, Restaurant halal, Restaurant de hamburgers, Livraison de repas a domicile, and Restaurant.
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:30-00:00. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at http://www.chickenstreet.fr/?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=mybusiness-website or call them at 50 059 006.</t>
+          <t>CHICKEN STREET is a fast-food restaurant located in Zarzis, Tunisia. It offers a variety of chicken dishes, including fried chicken, burgers, and wings. The restaurant is open from 11:30 AM to midnight, and it is closed on Sundays. CHICKEN STREET has a rating of 4.0 out of 5 stars on Google, and it has received positive reviews from customers who praise its food and service.</t>
         </is>
       </c>
     </row>
@@ -971,9 +967,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in zarzis and seeking a leisurely experience, El Margoum is a fantastic option, situated on Av. Mohamed V in G464+M5W El Margoum. 
-This renowned teahouse delights tea enthusiasts while offering a rating of 4.2, solidifying its status as a must-visit destination. 
-Its doors are open around the clock, and you can contact them at 98 233 519 for further information.</t>
+          <t>El Margoum is a tea room located in Zarzis, Tunisia. It has an average rating of 4.2 stars with 40 reviews. El Margoum is located at coordinates (33.4992942, 11.1081284) and is open 24 hours a day.</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1070,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a great Cafe, check out RBAT EL HALFAWIN located at G454+XR4 RBAT EL HALFAWIN, Route de Jerba, Av. Mohamed V, Zarzis 4170. With a rating of 4.1, this top-rated spot is open 24 hours a day and offers a range of Cafe options to choose from. To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, visit their website at https://www.google.com/maps/place/RBAT+EL+HALFAWIN/data=!4m7!3m6!1s0x13aaef0510574fbf:0x9a0da9f97a2968a3!8m2!3d33.5098774!4d11.1070675!16s%2Fg%2F1tcz03b2!19sChIJv09XEAXvqhMRo2gpevmpDZo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 719 219.</t>
+          <t>RBAT EL HALFAWIN is a cafe located in Zarzis, Tunisia. It is situated on Route de Jerba, Av. Mohamed V and has an overall rating of 4.1 based on 37 reviews. The cafe offers a cozy and inviting atmosphere, perfect for relaxing and enjoying a cup of coffee or tea. It is open 24 hours a day, making it a convenient spot to visit at any time.</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1169,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Cafe Gourmand located at Cafe Gourmand, 1e Arrondissement, Zarzis. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-21:45. To get there, use these GPS coordinates: 18.81035, -72.98772. For more details, visit their website at https://www.google.com/maps/place/Cafe+Gourmand/data=!4m7!3m6!1s0x13aaef0edb49c1e3:0x27bee3c035a27b27!8m2!3d33.5042494!4d11.1098083!16s%2Fg%2F11c2qkll_v!19sChIJ48FJ2w7vqhMRJ3uiNcDjvic?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Gourmand is a popular cafe located in Zarzis city. With a rating of 4.4 out of 5 based on 36 reviews, it serves delicious cheese cake and offers a warm and inviting atmosphere. The cafe is conveniently located at 1e Arrondissement, so it's easy to find and visit. Whether you're looking to enjoy a sweet treat or simply relax and unwind with a warm beverage, Cafe Gourmand is an excellent option. Its exact coordinates are (18.81035, -72.98772), making it easily accessible for both locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1268,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a top-rated cafe, check out Hannibal located at G423+JQG Hannibal, C118. This destination is perfect for cafe lovers and offers a range of cafe to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 05:00-22:00, but closed on . To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website or call them at 29 306 203.</t>
+          <t>Hannibal is a cafe located in Zarzis, Tunisia. It is a popular spot for locals and tourists alike, offering a wide variety of coffee, tea, and pastries. The cafe is also known for its friendly staff and its cozy atmosphere.</t>
         </is>
       </c>
     </row>
@@ -1377,9 +1371,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Cafe eleanor located at G3CW+RF8 Cafe eleanor, Zarzis. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 07:00-23:00, but closed on []. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at nan or call them at 75 738 810.</t>
+          <t>Café eleanor is a cafe located in zarzis, Tunisia. It has a rating of 4.2 stars based on 16 reviews. The cafe is open from 07:00-23:00 and is closed on []. The cafe's main category is Cafe and its other categories include ['Cafe']. The cafe's phone number is 75 738 810 and its address is G3CW+RF8 Cafe eleanor, Zarzis. The cafe's coordinates are (33.4992942, 11.1081284).</t>
         </is>
       </c>
     </row>
@@ -1482,9 +1474,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a great Restaurant, check out Fast Food La Palma located at G445+FHV Fast Food La Palma, Av. Mohamed V, Zarzis. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 10:00-01:00. To get there, use these GPS coordinates: 55.810848, -4.231739. For more details, visit their website at https://www.google.com/maps/place/Fast+Food+La+Palma/data=!4m7!3m6!1s0x13aaef05782cd4c3:0x97d3b61ba394b71c!8m2!3d33.5062256!4d11.1089255!16s%2Fg%2F11dfx6j0jc!19sChIJw9QseAXvqhMRHLeUoxu205c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 994 990.</t>
+          <t>Fast Food La Palma, located in Zarzis, Tunisia (55.810848, -4.231739), is a highly rated (4.1/5) restaurant known for its delicious food offerings. With an average review score of 4.1 based on 10 reviews, Fast Food La Palma is a popular dining destination in the area.</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1573,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a top-rated restaurant, check out lablabi sadok located at G436+G43 lablabi sadok, Av. Mohamed Ali Hammi, Zarzis. With a rating of 4.9, it's a must-visit spot for Restaurant lovers. It's open during these hours: 09:00-23:30, but closed on []. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website or call them at .</t>
+          <t>**Lablabi Sadok** is a popular restaurant located in Zarzis, Tunisia, at coordinates (33.4992942, 11.1081284). It has received an impressive rating of 4.9 based on 10 reviews, highlighting the quality of its offerings. With a prime location in the heart of the city, Lablabi Sadok offers a wide range of dishes, making it a sought-after dining destination.</t>
         </is>
       </c>
     </row>
@@ -1686,9 +1676,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Presse Cafe located at G445+RG2 Presse Cafe, C117, Zarzis. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on none. To get there, use these GPS coordinates: 55.810848, -4.231739. For more details, visit their website at none or call them at 26 833 833.</t>
+          <t>Presse Cafe is a cafe located at G445+RG2, C117, Zarzis, Tunisia. It has received a 4.4 rating from 9 reviews. The cafe is open from 7:00 AM to midnight every day and offers a variety of coffee and tea drinks, as well as pastries and other snacks.</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1779,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a cozy spot to unwind, head to Cafee Charchara situated at F3MR+MWX Cafee Charchara, Unnamed Road, Zarzis. This popular Cafe serves up a delightful menu of offerings. Rated 4.6 out of 5, Cafee Charchara is a must-visit destination for coffee enthusiasts. Their hours of operation are 05:30-01:30 during weekdays. For further information, reach out via phone at 75 748 084.</t>
+          <t>Cafee Charchara is a café located in Zarzis, Tunisia. It offers a variety of coffee drinks, as well as other beverages and snacks. The café is open from 5:30am to 1:30am, and is closed on Sundays. Cafee Charchara has a rating of 4.6 out of 5 stars on Google, and is known for its friendly staff and good coffee. It is located at the following coordinates: (33.4992942, 11.1081284).</t>
         </is>
       </c>
     </row>
@@ -1894,9 +1882,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a delightful dining experience, step into Mangos, located at G424+HJ3 Mangos, Zarzis. 
-This top-rated restaurant is a haven for food lovers, offering delectable dishes that tantalize your taste buds. With a rating of 4.8, it's a culinary gem you won't want to miss. Mangos is open from 10:00-18:00 during the week, but closed on Sundays. 
-To get there, simply navigate using the GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website or call them at 50 232 020. Indulge in the exquisite flavors that await you at Mangos!</t>
+          <t>Discover Mangos, a top-rated restaurant in Zarzis, Tunisia. With an impressive rating of 4.8 out of 5 stars based on 8 reviews, Mangos promises a delightful dining experience. Located at G424+HJ3 Mangos, Zarzis, it offers a convenient location for you to drop by and savor what it has to offer.</t>
         </is>
       </c>
     </row>
@@ -1999,10 +1985,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in Zarzis and looking for a great restaurant, head to Toutou pizza located at G33Q+86P Toutou pizza. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of options to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. 
-To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at https://www.google.com/maps/place/Toutou+pizza/data=!4m7!3m6!1s0x13aaef5f1a9e1603:0x6f8b3186f507b6ce!8m2!3d33.5033263!4d11.0880667!16s%2Fg%2F11lfgq54sp!19sChIJAxaeGl_vqhMRzrYH9YYxi28?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 524 166.</t>
+          <t>Toutou Pizza is an excellent restaurant in Zarzis, Tunisia, located at G33Q+86P. Open 24/7, it offers a variety of delectable dishes, including pizzas, to its customers. With a remarkable rating of 5.0 and 8 positive reviews, Toutou Pizza is a popular destination for food lovers seeking a satisfying culinary experience.</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2084,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a delightful Cafe experience, visit Cafe mosque Lassoued at G369+83H Cafe mosque Lassoued, Zarzis. Rated 4.4 out of 5, this popular destination offers a cozy ambiance perfect for Cafe lovers. With daily hours of operation from 06:00-23:00, it welcomes you to savor its offerings throughout the week.</t>
+          <t>Cafe mosque Lassoued is a cafe located in Zarzis, Tunisia (33.4992942, 11.1081284). It offers a range of services including cafe and has a rating of 4.4 stars out of 7 reviews. The cafe is open from 6am to 11pm, 7 days a week.</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2191,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Salon de the Le Patio located at Place des martyres, Zarzis 4170. This top-rated destination is perfect for Salon de the lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, visit their website at https://fb.watch/cGDSYVyo9Q/ or call them at 23 719 983.</t>
+          <t>Nestled in the heart of Zarzis, Salon de the Le Patio beckons you with its cozy ambiance and delectable delights. This charming tea room doubles as a breakfast spot and cafe, offering a tempting menu of pastries, beverages, and more. Conveniently located on Place des martyres, Le Patio welcomes you daily from 8 AM to midnight, serving up a warm and inviting experience.</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2294,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in Zarzis and looking for a great place to relax and enjoy a cup of coffee, check out Cafe Chichkhane. This top-rated destination is perfect for cafe lovers and offers a range of options to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 04:00-01:00. To get there, use these GPS coordinates: 33.5298945, 11.0882724.</t>
+          <t>Cafe Chichkhane is a must-visit spot in Zarzis, Tunisia. This highly-rated cafe (4.7/5) boasts an impressive ambiance and serves delicious food and drinks. It is conveniently located at G424+MG7 Cafe Chichkhane, Av. 20 Mars, Zarzis 4170, making it easy for both locals and tourists to find. With its daily营业时间 of 4:00 AM to 1:00 AM, you can enjoy your favorite dishes and beverages at any time. Whether you're a coffee enthusiast, a foodie, or simply looking for a cozy place to relax, Cafe Chichkhane is the perfect destination.</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2389,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in Zarzis and looking for a great place to eat, check out Cafe my way zarzis located at Cafe my way zarzis, 4140, C118, Zarzis. This top-rated restaurant is perfect for Restaurant lovers and has a rating of 5.0. It's open during these hours: 06:00-20:00, but closed on Dimanche. To get there, use these GPS coordinates: 33.50398, 11.11215.</t>
+          <t>Cafe my way Zarzis is a Restaurant located in zarzis. The place is highly rated with 5.0/5 from 6 reviews. It offers its services from Monday to Saturday from 6 am to 8 pm.</t>
         </is>
       </c>
     </row>
@@ -2501,9 +2484,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Chez keke located at G454+WVC Chez keke, Zarzis. 
-This top-rated destination is perfect for Creperie lovers and offers a range of Creperie to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at https://www.google.com/maps/place/Chez+keke/data=!4m7!3m6!1s0x13aaef21a5d7e1cb:0x79b12b3a8fbacb2e!8m2!3d33.5098045!4d11.1071472!16s%2Fg%2F11j04hpg_t!19sChIJy-HXpSHvqhMRLsu6jzorsXk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Chez keke is a creperie located in Zarzis, Tunisia (33.4992942, 11.1081284). It has a 4.2 rating based on 5 reviews.</t>
         </is>
       </c>
     </row>
@@ -2606,9 +2587,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Le Grand Bleu located at G424+MJR Le Grand Bleu, shr` 20 mrs, Zarzis. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 08:30-23:00. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, call them at 96 596 420.</t>
+          <t>Le Grand Bleu, a 4.8-star restaurant in Zarzis, offers an impressive dining experience. Located at coordinates (33.4992942, 11.1081284), the restaurant welcomes guests from 8:30 AM to 11:00 PM daily.</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2686,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in Zarzis and looking for a great cafe, check out Cafe Stade ZCP located at 1e Arrondissement, Zarzis. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 06:00-23:00, but closed on . To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at  or call them at .</t>
+          <t>Cafe Stade ZCP, nestled in the heart of Zarzis, is an exceptional cafe that offers an unforgettable experience. Located at the convenient coordinates (33.4992942, 11.1081284), this cafe boasts a cozy and inviting ambiance, making it the perfect destination for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -2810,9 +2789,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Cafe Ghrab located at F3WR+W77 Cafe Ghrab, Zarzis. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-17:00. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Ghrab/data=!4m7!3m6!1s0x13aaef22f92ed0d1:0xffad68dbb169fa5b!8m2!3d33.4972786!4d11.0906563!16s%2Fg%2F11h6t717gn!19sChIJ0dAu-SLvqhMRW_ppsdtorf8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 54 214 875.</t>
+          <t>Cafe Ghrab, located at (33.4992942, 11.1081284) in Zarzis, is a highly rated cafe with a 5.0 rating. It is open from 09:00-17:00 and offers a cozy atmosphere to enjoy its cafe offerings.</t>
         </is>
       </c>
     </row>
@@ -2907,9 +2884,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Fastfood Lazhar located at F3PJ+5R6 Fastfood Lazhar, Zarzis. 
-This top-rated destination is perfect for Restauration rapide lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:04-21:05. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at https://www.google.com/maps/place/Fastfood+Lazhar/data=!4m7!3m6!1s0x13aaef18986b170d:0x432c370e40d7ef1c!8m2!3d33.4851605!4d11.0819408!16s%2Fg%2F11k4jpht61!19sChIJDRdrmBjvqhMRHO_XQA43LEM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Fastfood Lazhar is a highly-rated (5.0/5) fast food restaurant located in Zarzis, Tunisia. It is open from 8:04 AM to 9:05 PM and is a popular spot for quick and tasty meals. The restaurant specializes in fast food items and is known for its delicious offerings. It is conveniently located at F3PJ+5R6 Fastfood Lazhar, making it easily accessible to both locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -3012,9 +2987,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Cafe Liberte located at Av. Farhat Hached, Zarzis. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-23:00. To get there, use these GPS coordinates: 35.943278, 8.828144. For more details, visit their website at or call them at 24 339 880.</t>
+          <t>Cafe Liberte is a renowned cafe located in Zarzis, Tunisia. It offers a welcoming ambiance with a focus on customer satisfaction. Cafe Liberte is conveniently located at Av. Farhat Hached, making it easily accessible for visitors. The cafe is open from 5:00 AM to 11:00 PM on weekdays, providing ample opportunity for customers to enjoy their offerings. With a rating of 5.0, Cafe Liberte is highly esteemed by its patrons. Its menu features various cafe-style beverages and treats, catering to diverse tastes and preferences.</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3090,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a top-rated cafe, check out First Cup Zarzis located at G464+P79 First Cup Zarzis, Zarzis. With a rating of 5.0, it's a must-visit spot for Cafe lovers. It's open from 05:00-00:00 during weekdays, but closed on []. To get there, use these GPS coordinates: 33.50398, 11.11215. For more details, visit their website at [] or call them at 98 281 606.</t>
+          <t>First Cup Zarzis is a cafe located in Zarzis, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and snacks. The cafe is open from 5am to midnight, and is closed on Sundays. First Cup Zarzis has a rating of 5.0 on Google, and is known for its friendly staff and delicious coffee. It is located at G464+P79 First Cup Zarzis, Zarzis, and can be contacted at 98 281 606.</t>
         </is>
       </c>
     </row>
@@ -3220,9 +3193,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a tasty coffee, check out Cafe les Arcades located at qSr wld s`yd, shrk@ ls`d@ llmwd lGdhy'y@ 4170, Zarzis. 
-This top-rated destination offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, visit their website at https://www.google.com/maps/place/Cafe+les+Arcades/data=!4m7!3m6!1s0x13aaef7b2369851d:0x2f6ad65354b4bdbb!8m2!3d33.5085236!4d11.1060046!16s%2Fg%2F11sy58hpym!19sChIJHYVpI3vvqhMRu720VFPWai8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 470 839.</t>
+          <t>**Café les Arcades** is a highly-rated café located in Zarzis, Tunisia. It offers a cozy and inviting atmosphere, with a menu featuring a wide variety of coffee, tea, and other beverages. The café is open 24 hours a day, making it a great spot for a quick bite or a late-night hangout.</t>
         </is>
       </c>
     </row>
@@ -3325,8 +3296,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a top-rated Hotel, check out Dar Oomi located at Dar Oomi, Km 33 Route de Djerba, Zarzis 4170. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, visit their website at http://www.dar-oomi.com/ or call them at 29 172 388.</t>
+          <t>Dar Oomi is a well-reputed hotel located in Zarzis, Tunisia. It's situated along the Km 33 Route de Djerba, making it easily accessible for both tourists and locals. This 4.6-rated hotel offers comfortable accommodations, with 19 reviews praising its services. Its website (http://www.dar-oomi.com/) provides additional information about room availability, amenities, and special offers. Coordinates: (33.5298945, 11.0882724)</t>
         </is>
       </c>
     </row>
@@ -3429,9 +3399,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Dar Oomi located at Dar Oomi, Km 33 Route de Djerba, Zarzis 4170. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, visit their website at http://www.dar-oomi.com/ or call them at 29 172 388.</t>
+          <t>Dar Oomi is a 4.6-rated hotel located in Zarzis, Tunisia, at the coordinates (33.5298945, 11.0882724). The hotel has an impressive 19 reviews and its website is http://www.dar-oomi.com/. Its main category is Hotel and the owner is 'Dar Oomi (proprietaire)'. The hotel's primary categories are 'Hotel'.</t>
         </is>
       </c>
     </row>
@@ -3538,7 +3506,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in Zarzis and looking for a place to stay, consider Hotel Bellevue Zarzis, located at Zone Touristique Sangho. This top-rated hotel is perfect for those seeking a comfortable stay and offers a range of amenities, including a restaurant, cafe, and swimming pool. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 33.5459906, 11.0902961. For more details, visit their website at http://www.bellevuezarzis.com/ or call them at 75 707 455.</t>
+          <t>Hôtel Bellevue Zarzis, is a simple hotel that offers sober rooms with balcony or terrace, a restaurant and a swimming pool. It is located on the touristic area of Sangho, Zarzis 4173, Tunisia. It offers a 4.6 rate based on 114 reviews on Google Maps and one can have more information on its website http://www.bellevuezarzis.com/.</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3601,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a restful stay, check out Hotel Eden Star located at G33Q+J7W Hotel Eden Star, Unnamed Road, Zarzis. This highly-rated hotel is perfect for Hotel lovers with a rating of 4.1. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at https://www.google.com/maps/place/Hotel+Eden+Star/data=!4m10!3m9!1s0x13aaef3eaaaaaaab:0xec56aa6e2e5d3389!5m2!4m1!1i2!8m2!3d33.5041224!4d11.0882028!16s%2Fg%2F11d_1m3mpn!19sChIJq6qqqj7vqhMRiTNdLm6qVuw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided number.</t>
+          <t>The 4.1-rated Hotel Eden Star in Zarzis, Tunisia, offers a pleasant stay for its guests. It boasts a convenient location, with its exact coordinates being (33.4992942, 11.1081284). The hotel is known for its comfortable rooms and excellent restaurant. Guests also praise the friendly staff and the fun animation activities. Hotel Eden Star is a great choice for those seeking an enjoyable and relaxing vacation.</t>
         </is>
       </c>
     </row>
@@ -3736,7 +3704,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Dar Nesma located at Dar Nesma, souhiel BP153, Zarzis 4173. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes, Lodge to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 33.5459906, 11.0902961. For more details, visit their website at http://www.dar-nesma.com/ or call them at 55 900 708.</t>
+          <t>Dar Nesma is a 4.4-star-rated lodge and guest house located in Zarzis, Tunisia, at (33.5459906, 11.0902961). It is close to the sea and offers a view of the sea from its rooms. The lodge has 41 reviews, with common keywords being "view," "rooms," "sea," "price," and "cuisine." Dar Nesma's website is http://www.dar-nesma.com/, and you can contact them at 55 900 708.</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3803,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a top-rated accommodation, Suites Hotel Les Seigniors is a must-visit spot. Located at Suite Hotel les Seigniors zone touristique Sangho, Zarzis 4173, this 4.5-starred destination is perfect for those seeking Hebergement d'interieur. You can contact them at 98 336 744.</t>
+          <t>Suites Hotel Les Seigniors is a beautiful hotel located in Zarzis, Tunisia. It offers a wide range of amenities, including an outdoor pool, a fitness center, and a spa. The hotel is situated in the heart of the city, making it easy to explore all that Zarzis has to offer. The hotel's rooms are spacious and well-appointed, and the staff is friendly and helpful.</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3906,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a place to stay, consider Dar Oomi. Located at Dar Oomi, Km 33 Route de Djerba, Zarzis 4170, this top-rated hotel is perfect for those seeking a comfortable and convenient stay. With a rating of 4.6, it's a must-visit spot. For more details, visit their website at http://www.dar-oomi.com/ or call them at 29 172 388.</t>
+          <t>**Dar Oomi** is a 4.6-rated hotel located at Km 33 Route de Djerba in Zarzis, Tunisia. It boasts a convenient location with easy access to local attractions and amenities.</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4009,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a cozy place to stay, consider Villa Kika located at Chemin de la plage de, Zarzis. This top-rated destination is perfect for Chambre d'hotes lovers and offers a rating of 4.4. For more details, visit their website at http://villa-kika-zarzis.com/ or call them at 20 154 010.</t>
+          <t>Villa Kika is a guest house in Zarzis, Tunisia. It offers 7 rooms and features a swimming pool and a garden. The guest house is located near the beach and offers views of the sea. Reviews of the guest house mention the friendly staff, the clean rooms, and the good location.</t>
         </is>
       </c>
     </row>
@@ -4140,9 +4108,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Marina Cafe located at G4G7+9M6 Marina Cafe, Residence La Corniche, Avenue De La Republique, Zarzis 2060. 
-This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 3.7, it's a must-visit spot. It's open during these hours: 06:00-01:00. To get there, use these GPS coordinates: 36.820534685077, 10.309442677679. For more details, visit their website at https://www.google.com/maps/place/Marina+Cafe/data=!4m7!3m6!1s0x13aaeef8eff6b145:0xb6648f487ba74507!8m2!3d33.5259155!4d11.114127!16s%2Fg%2F11c4bfqsk_!19sChIJRbH27_juqhMRB0Wne0iPZLY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Marina Cafe is a well-established coffee shop located in the city of Zarzis, Tunisia. Situated on the waterfront with beautiful surroundings, the café offers a scenic view of the marina. It is a very popular local hangout spot and also among tourists, owing to its friendly staff and delicious food. The café has an extensive menu with a wide range of options, including pizzas, crêpes, and other snacks. They also have a selection of drinks, including coffee, tea, and juices. Marina Cafe is opened every day from 6 AM to 1 AM, except for Sundays.</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4203,8 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a top-rated port, check out Port de peche Zarzis. This popular destination has a 4.5 rating and is perfect for port lovers. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 33.49216, 11.11959. For more details, visit their website at  or call them at .</t>
+          <t>**Port of Zarzis**
+This port, situated at (long: 11.11959, lat: 33.49216) in Zarzis, Tunisia, offers a range of facilities and services for fishing operations. With highly rated reviews (4.5/5 based on 24 reviews), it exemplifies the importance of fishing in the local economy and offers a glimpse into the bustling maritime activities of the region.</t>
         </is>
       </c>
     </row>
@@ -4332,9 +4299,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Port Zarzis located at F4W9+7JQ Port Zarzis, Zarzis. 
-This Port de plaisance lovers and offers a range of Port de plaisance to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 33.4928719, 11.1139265. For more details, visit their website at https://www.google.com/maps/place/Port+Zarzis/data=!4m7!3m6!1s0x13aaef0d947599c5:0x456f35b166ea1c41!8m2!3d33.4957213!4d11.1191015!16s%2Fg%2F1213j1vf!19sChIJxZl1lA3vqhMRQRzqZrE1b0U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided phone number.</t>
+          <t>Port Zarzis, located in Zarzis, Tunisia (33.4928719, 11.1139265), is a marina with a 4.5-star rating based on 20 reviews. It features a scenic waterfront setting and offers a range of boating and recreational activities. With a focus on providing a relaxing and enjoyable experience for boaters and visitors alike, Port Zarzis is an excellent destination for those seeking a tranquil getaway.</t>
         </is>
       </c>
     </row>
@@ -4433,9 +4398,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something delicious, check out la syrenne `rws lbHr located at G4F7+HR6 la syrenne `rws lbHr, Unnamed Road,, Zarzis. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 3.3, it's a must-visit spot. It's open during these hours: 08:00-02:00. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at https://www.google.com/maps/place/la+syrenne+%D8%B9%D8%B1%D9%88%D8%B3+%D8%A7%D9%84%D8%A8%D8%AD%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x13aaeef8ccdea577:0xc39c0dca3b366c6!8m2!3d33.5239154!4d11.1145196!16s%2Fg%2F11c0vq7lz_!19sChIJd6XezPjuqhMRxmazo9zAOQw?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**Restaurant la syrenne** is located at (33.4992942, 11.1081284) in Zarzis. This restaurant has a rating of 3.3 out of 5 based on 8 reviews. It is open from 8:00 AM to 2:00 AM and offers a variety of dishes.</t>
         </is>
       </c>
     </row>
@@ -4542,7 +4505,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in Zarzis and looking to explore its history, visit Musee de la Memoire de la Mer et de l'Homme at G4W4+2R 3e Arrondissement Souihel, Souihel Zarzis 4173. With a rating of 4.7 and 7 reviews, this top-rated museum is perfect for history enthusiasts. It's open during these hours: 10:00 AM - 1:00 PM, 3:00 PM - 6:00 PM, but closed on . For more details, visit their website at http://zarziszitazarzis.blogspot.com/ or call them at 98 254 426.</t>
+          <t>The Musee de la Memoire de la Mer et de l'Homme is a museum located in zarzis, Tunisia. The museum is dedicated to the maritime history of the region, and features exhibits on fishing, shipbuilding, and navigation. It is located at coordinates (33.5459906, 11.0902961) and is open from 10:00-13:00 and 15:00-18:00. The museum is closed on Wednesdays.</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4604,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a highly-rated Villa, check out Plage souihel zarzis located at G4P5+3RM Plage souihel zarzis, Zarzis. With a rating of 4.6, it's a must-visit spot for Villa lovers. To get there, use these GPS coordinates: 33.50398, 11.11215. For more details, visit their website at https://www.google.com/maps/place/Plage+souihel+zarzis/data=!4m7!3m6!1s0x13aaef05a4bf29f1:0x57ba5cb9b3aa3ad8!8m2!3d33.5352023!4d11.1095476!16s%2Fg%2F11ngjm3vrk!19sChIJ8Sm_pAXvqhMR2Dqqs7lculc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 662 844.</t>
+          <t>Plage Souihel Zarzis is a villa located in Zarzis, Tunisia. It offers a relaxing and enjoyable stay for its guests, with a rating of 4.6 based on 5 reviews. The villa is situated at the coordinates (33.50398, 11.11215) and can be contacted via phone at 21 662 844.</t>
         </is>
       </c>
     </row>
@@ -4736,9 +4699,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Restaurant Amin located at G4J7+8Q6 Restaurant Amin, Zarzis. 
-This top-rated destination is perfect for Restaurant de fruits de mer lovers and offers a range of Restaurant de fruits de mer to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 48.9137136, 2.4026955. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Amin/data=!4m7!3m6!1s0x13aaefe60eab6621:0x79aea0e1d0af0938!8m2!3d33.5307865!4d11.114379!16s%2Fg%2F11q2nw6bff!19sChIJIWarDubvqhMROAmv0OGgrnk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Restaurant Amin, located on the coordinates (48.9137136, 2.4026955) in Zarzis, is a seafood restaurant with a 5.0 rating based on 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4798,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Musee de Zarzis located at G427+RH6 Musee de Zarzis, Unnamed Road, Zarzis. This top-rated destination is perfect for mtHf lovers and offers a range of mtHf to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 9S-4m, but closed on lthnyn. To get there, use these GPS coordinates: 33.50398, 11.11215.</t>
+          <t>The Musee de Zarzis is a museum located in Zarzis, Tunisia. The museum offers a glimpse into the history and culture of the region. The exhibits include artifacts, photographs, and documents that tell the story of Zarzis and its people. The museum is open from 9am to 4pm, Tuesday through Sunday.</t>
         </is>
       </c>
     </row>
@@ -4944,9 +4905,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Musee de la Memoire de la Mer et de l'Homme. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 10:00-13:00, 15:00-18:00, but closed on none . To get there, use these GPS coordinates: 33.5459906, 11.0902961. For more details, contact at 98 254 426.</t>
+          <t>Located in Zarzis, Tunisia, the Musée de la Mémoire de la Mer et de l'Homme is dedicated to preserving the maritime history and heritage of the region. It houses a collection of artifacts, exhibits, and documents that delve into the rich maritime traditions of the area, offering visitors a glimpse into the past of Zarzis. The museum is conveniently located at 3e Arrondissement Souihel, Souihel Zarzis 4173, accessible via G4W4+2R. Its weekday hours of operation are from 10:00-13:00 and 15:00-18:00, making it easy to plan a visit during your stay in Zarzis. With a 4.7-star rating based on 7 reviews, the museum is highly regarded for its informative and engaging exhibits.</t>
         </is>
       </c>
     </row>
@@ -5045,9 +5004,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a cultural experience, visit Musee de Zarzis, located at G427+RH6 Musee de Zarzis, Unnamed Road, Zarzis. 
-This top-rated museum is perfect for museum lovers and offers a range of exhibits to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on Monday.</t>
+          <t>Musé de Zarzis is a museum located in Zarzis, Tunisia. It offers a diverse collection of exhibits that showcase the rich history and culture of the region. The museum is open from 9am to 4pm, Tuesday through Sunday. It is closed on Mondays. Admission to the museum is free of charge.</t>
         </is>
       </c>
     </row>
@@ -5142,7 +5099,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you happen to be in zarzis and looking for a thrilling experience, check out musee ziane zarzis located at G23F+6VR musee ziane zarzis. Perfect for Musee enthusiasts, this highly-rated spot offers a variety of options. With an impressive rating of 5.0, it's a must-visit destination. For more details, you can reach them at 75 685 980.</t>
+          <t>musée ziane zarzis is a museum located in Zarsis, Tunisia. It features a variety of exhibits that provide insight into the history and culture of the region. The museum is open to the public and offers guided tours. It is situated at (33.4992942°, 11.1081284°) in Zarsis.</t>
         </is>
       </c>
     </row>
@@ -5245,7 +5202,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a top-notch dining experience, head to Restaurant El Bibane, conveniently located at Plage sonia zarzis, 4170, Zarzis. As a highly rated establishment with a 4.3 rating, this sought-after destination caters to Restaurant enthusiasts, offering a wide range of Restaurant options to satisfy your cravings. It's open daily during these hours: 12:00-16:00, 19:00-23:00. To get there, simply follow these GPS coordinates: (33.5298945, 11.0882724). For more details, make sure to visit their website or give them a call at 99 242 403.</t>
+          <t>Restaurant El Bibane, situated in Zarzis, Tunisia at the coordinates (33.5298945, 11.0882724), is a highly rated establishment with 4.3 stars out of 5 based on 153 reviews. This restaurant specializes in seafood and offers a range of dishes, including daurade, salads, pasta, and other culinary delights. Restaurant El Bibane is renowned for its exquisite cuisine, inviting ambiance, and exceptional service</t>
         </is>
       </c>
     </row>
@@ -5344,9 +5301,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a great Cafe, Cafe Gourmand at 1e Arrondissement is the place to go. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe options to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-21:45. To get there, use these GPS coordinates: 18.81035, -72.98772. For more details, visit their website at https://www.google.com/maps/place/Cafe+Gourmand/data=!4m7!3m6!1s0x13aaef0edb49c1e3:0x27bee3c035a27b27!8m2!3d33.5042494!4d11.1098083!16s%2Fg%2F11c2qkll_v!19sChIJ48FJ2w7vqhMRJ3uiNcDjvic?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Gourmand is a cafe in Zarzis, Tunisia, offering a variety of services. It is located at (18.81035, -72.98772) and is a well-rated cafe with a rating of 4.4. It has a featured image and is also known for its cheese cake, which is mentioned in 3 of its reviews.</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5404,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Cafe eleanor. It is a top-rated destination perfect for Cafe lovers. It's open during these hours: 07:00-23:00, but closed on . To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website or call them at 75 738 810.</t>
+          <t>Cafe eleanor is a cafe located in Zarzis, Tunisia. It has a rating of 4.2 stars based on 16 reviews. The cafe is open from 7am to 11pm and is closed on . It is located at coordinates (33.4992942, 11.1081284).</t>
         </is>
       </c>
     </row>
@@ -5552,7 +5507,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Restaurant el Marsa zarzis located at Kornich sonia, Zarzis 4170. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on . To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, visit their website or call them at 54 126 124.</t>
+          <t>Restaurant el Marsa zarzis is a restaurant located in zarzis (33.5298945, 11.0882724) specialized in local cuisine. It has mostly positive reviews with an average rating of 4.0.</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5606,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out lablabi sadok located at G436+G43 lablabi sadok, Av. Mohamed Ali Hammi, Zarzis. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 09:00-23:30, but closed on []. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at https://www.google.com/maps/place/lablabi+sadok/data=!4m7!3m6!1s0x13aaef0ecf35b1ed:0x161bfb348675ffe3!8m2!3d33.5037742!4d11.1103069!16s%2Fg%2F11f4_2w5xy!19sChIJ7bE1zw7vqhMR4_91hjT7GxY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Lablabi Sadok is a renowned restaurant in Zarzis, Tunisia, with a rating of 4.9 and over 10 reviews. It offers traditional Tunisian cuisine with a focus on lablabi, a hearty bean and chickpea stew. The restaurant is located on Avenue Mohamed Ali Hammi and is open daily from 09:00 to 23:30. Come by to enjoy their famous lablabi and experience the vibrant atmosphere of Zarzis.</t>
         </is>
       </c>
     </row>
@@ -5754,7 +5709,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a top-rated Restaurant, check out Fast Food La Palma located at G445+FHV Fast Food La Palma, Av. Mohamed V, Zarzis. This destination offers a range of categories to choose from and has a rating of 4.1, making it a must-visit spot. It's open during these hours: 10:00-01:00. To get there, use these GPS coordinates: 55.810848, -4.231739. For more details, visit their website at https://www.google.com/maps/place/Fast+Food+La+Palma/data=!4m7!3m6!1s0x13aaef05782cd4c3:0x97d3b61ba394b71c!8m2!3d33.5062256!4d11.1089255!16s%2Fg%2F11dfx6j0jc!19sChIJw9QseAXvqhMRHLeUoxu205c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 994 990.</t>
+          <t>Fast Food La Palma is a restaurant located in zarzis, at the coordinates (55.810848, -4.231739). This restaurant has a rating of 4.1 stars out of 5, based on 10 reviews. It is open from 10:00 AM to 01:00 AM, and is closed on . Fast Food La Palma offers a variety of dishes, and is a popular destination for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -5853,7 +5808,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a delicious meal, visit Restaurant Boubtane located at F3R9+67P Restaurant Boubtane, Zran, Zarzis. This top-rated restaurant is perfect for Restaurant lovers and offers a range of Restaurant options to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 10:00-23:00, but closed on []. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at or call them at 53 027 984.</t>
+          <t>Restaurant Boubtane is a popular restaurant located in Zran, Zarzis, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is open daily from 10:00 AM to 11:00 PM and is closed on Fridays. Restaurant Boubtane has received positive reviews from customers, with many praising the quality of the food and service. The restaurant is conveniently located near the beach and several other attractions.</t>
         </is>
       </c>
     </row>
@@ -5956,9 +5911,8 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Toutou pizza located at G33Q+86P Toutou pizza, Zarzis. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on [ ]. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at https://www.google.com/maps/place/Toutou+pizza/data=!4m7!3m6!1s0x13aaef5f1a9e1603:0x6f8b3186f507b6ce!8m2!3d33.5033263!4d11.0880667!16s%2Fg%2F11lfgq54sp!19sChIJAxaeGl_vqhMRzrYH9YYxi28?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 524 166.</t>
+          <t>**Toutou Pizza**
+Located in Zarzis, Toutou Pizza is a highly-rated restaurant with an average score of 5.0 stars. It offers a wide range of delicious options, making it a popular choice for locals and visitors alike. The restaurant is located at the coordinates 33.4992942, 11.1081284 and is open 24 hours a day. This convenient location and flexible hours make it easy to enjoy Toutou Pizza's culinary offerings anytime.</t>
         </is>
       </c>
     </row>
@@ -6065,10 +6019,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in Zarzis and looking for a cozy spot to relax, head over to Salon de the Le Patio located at Place des martyres. 
-This top-rated destination is a haven for tea lovers and offers a range of dining options including breakfast. 
-With a rating of 4.1, it's a must-visit spot. It opens daily from 8 AM to midnight. For more details, visit their website 
-at https://fb.watch/cGDSYVyo9Q/ or call them at 23 719 983.</t>
+          <t>The Salon de thé Le Patio is a café, breakfast spot, and tearoom located at Place des martyrs, Zarzis 4170 with the coordinates (33.5298945, 11.0882724). It has a rating of 4.1 out of 5 based on 7 reviews. The opening hours are from 8 am to midnight every day. The café has a featured image and is owned by Salon de thé Le Patio (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -6163,7 +6114,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Baba El Haj located at G445+2R9 Baba El Haj, C117, Zarzis. This top-rated destination is perfect for Restauration rapide lovers. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 49.802897302342, 14.706750099876.</t>
+          <t>Baba El Haj is a fast food restaurant located in zarzis, Tunisia. It offers a variety of dishes, including sandwiches, burgers, and fries. The restaurant is located at G445+2R9 Baba El Haj, C117, Zarzis, and its coordinates are (49.802897302342, 14.706750099876). The restaurant is open 7 days a week and has a rating of 4.3 stars on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -6258,7 +6209,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Cafe my way zarzis located at Cafe my way zarzis, 4140, C118, Zarzis. This top-rated destination is perfect for Restaurant lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-20:00, but closed on dimanche. To get there, use these GPS coordinates: 33.50398, 11.11215. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+my+way+zarzis/data=!4m7!3m6!1s0x13aaefc94a4a03b9:0xb3bbc9cff9e807ed!8m2!3d33.50048!4d11.105132!16s%2Fg%2F11lg3tjjcz!19sChIJuQNKSsnvqhMR7Qfo-c_Ju7M?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe my way zarzis is a restaurant located in Zarzis, Tunisia. It is open from 6:00 AM to 8:00 PM, Monday to Saturday. The restaurant has a 5.0 rating on Google and offers a relaxed atmosphere. It is perfect for a quick bite or a leisurely meal.</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6308,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a great dining experience, check out Pizza Latinos located at G445+2R9 Pizza Latinos, C117, Zarzis. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 10:00-23:00, but closed on . To get there, use these GPS coordinates: 55.810848, -4.231739. For more details, visit their website at https://www.google.com/maps/place/Pizza+Latinos/data=!4m7!3m6!1s0x13aaef0ed95b8a19:0xa33b4d123254667c!8m2!3d33.505043!4d11.1096098!16s%2Fg%2F119tt8r0_!19sChIJGYpb2Q7vqhMRfGZUMhJNO6M?authuser=0&amp;hl=fr&amp;rclk=1 or call them at</t>
+          <t>Pizza Latinos is a 4.2 rated restaurant located in Zarzis, Tunisia. It's open from 10:00 AM to 11:00 PM and offers a variety of dining options. The restaurant is located at coordinates (55.810848, -4.231739).</t>
         </is>
       </c>
     </row>
@@ -6460,7 +6411,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in zarzis and seeking a delectable dining experience, look no further than Le Grand Bleu, situated at G424+MJR Le Grand Bleu, shr` 20 mrs. This highly acclaimed restaurant caters to Restaurant enthusiasts, offering a tantalizing array of culinary delights. With an exceptional rating of 4.8, it's a culinary gem not to be missed. Operating hours are from 08:30-23:00, but remain closed on undisclosed days. For precise navigation, utilize the GPS coordinates: 33.4992942, 11.1081284. To make reservations or inquire further, contact them at 96 596 420.</t>
+          <t>Le Grand Bleu is a restaurant located in Zarzis, Tunisia. It offers a variety of dishes, including seafood, pasta, and pizza. The restaurant is open from 8:30am to 11pm, 7 days a week. It is located at G424+MJR Le Grand Bleu, shr` 20 mrs, Zarzis. The restaurant has a rating of 4.8 out of 5 on Google, and has received positive reviews for its food, service, and atmosphere.</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6502,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out O'miams zarzis located at F4X6+RXX O'miams zarzis, Zarzis 4173. This top-rated destination is perfect for Sandwicherie lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.5459906, 11.0902961.</t>
+          <t>O'miams zarzis is a Sandwicherie situated at F4X6+RXX, Zarzis 4173, Tunisia, with coordinates of (33.5459906, 11.0902961). The Sandwicherie offers great dishes and has a good reputation with a 4.0 rating out of 5.</t>
         </is>
       </c>
     </row>
@@ -6650,7 +6601,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Dar Zamen located at G474+JJF. This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at https://www.google.com/maps/place/Dar+Zamen/data=!4m7!3m6!1s0x13aaefeda2af0107:0xfbe8c2bcccc5abe6!8m2!3d33.5137405!4d11.1059402!16s%2Fg%2F11t23vzf1g!19sChIJBwGvou3vqhMR5qvFzLzC6Ps?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Dar Zamen is a fast food restaurant located in Zarzis, Tunisia (33.4992942, 11.1081284). It is praised by customers for its 4.5-star service and is open from 7:00 am to midnight every day.</t>
         </is>
       </c>
     </row>
@@ -6745,7 +6696,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in Zarzis and craving some delicious fast food, head over to Fastfood Lazhar located at F3PJ+5R6 Fastfood Lazhar. This top-rated eatery is renowned for its mouthwatering dishes and offers a variety of options to satisfy your hunger. With a remarkable rating of 5.0, it's a must-visit spot for food lovers. It's open daily from 08:04 to 21:05. To get there, use these GPS coordinates: 33.4992942, 11.1081284. For more details, visit their website at https://www.google.com/maps/place/Fastfood+Lazhar/data=!4m7!3m6!1s0x13aaef18986b170d:0x432c370e40d7ef1c!8m2!3d33.4851605!4d11.0819408!16s%2Fg%2F11k4jpht61!19sChIJDRdrmBjvqhMRHO_XQA43LEM?authuser=0&amp;hl=fr&amp;rclk=1 or give them a call at (number not available).</t>
+          <t>Fastfood Lazhar is a fast food restaurant located at coordinates (33.4992942, 11.1081284) in Zarzis, Tunisia. It offers a variety of fast food options in a casual setting. The restaurant is open from 8:04am to 9:05pm, Monday through Sunday.</t>
         </is>
       </c>
     </row>
@@ -6844,9 +6795,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for something fun to do, check out Restaurant le rendez-vous zarzis located at G33Q+J7W Restaurant le rendez-vous zarzis, Plage El Batoire, Zarzis 4170. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, visit their website at  or call them at 22 193 564.</t>
+          <t>Restaurant le rendez-vous zarzis is a 5-star rated restaurant located in Zarzis, Tunisia. It's situated at 33.5041224 latitude and 11.0882028 longitude, near Plage El Batoire. Unfortunately, there's no additional information available about its menu or services.</t>
         </is>
       </c>
     </row>
@@ -6941,9 +6890,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you find yourself in zarzis, be sure to visit DAR SHATT, located at DAR SHATT, shT lbTwr, Zarzis 4170. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, call them at 24 531 667.</t>
+          <t>DAR SHATT, rated 5.0 by 2 reviews, is a restaurant located at DAR SHATT, shT lbTwr, Zarzis 4170. Its coordinates are (33.5298945, 11.0882724), and its phone number is 24 531 667.</t>
         </is>
       </c>
     </row>
@@ -7034,7 +6981,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a top-rated Restaurant, check out Master Chef Zarzis located at Immeuble Erriyadh Route de Mednine 4170, Zarzis. This popular spot offers a range of Restaurant options to choose from and has received a 5.0 rating. For more details, visit their website at https://www.google.com/maps/place/Master+Chef+Zarzis/data=!4m7!3m6!1s0x13aaeffff154d1c3:0xafa5efb6a3c6c676!8m2!3d33.5041224!4d11.0882028!16s%2Fg%2F11mndqt1hz!19sChIJw9FU8f_vqhMRdsbGo7bvpa8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Master Chef Zarzis is a highly-rated restaurant located in Zarzis, Tunisia. With a rating of 5.0 based on 2 reviews, Master Chef Zarzis offers fine dining  in a convenient location (33.5298945, 11.0882724). Unfortunately, more detailed information, such as their menu, price range, or operating hours, is currently unavailable.</t>
         </is>
       </c>
     </row>
@@ -7137,7 +7084,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a top-rated Restaurant, head to Top Chef Restaurant located at G427+2Q5 Top Chef Restaurant, Zarzis. This must-visit spot offers a range of Restaurant options and has a rating of 5.0. It's open during these hours: 11:30-21:30, but closed on dimanche. For more details, call them at 56 133 274.</t>
+          <t>Top Chef Restaurant is a restaurant located in Zarzis, Tunisia, it is specifically situated at G427+2Q5. The restaurant is open from Monday to Saturday from 11:30 am to 9:30 pm, but it is closed on Sundays. With a 5.0 rating, Top Chef Restaurant is a great place to enjoy a meal.</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7183,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in Zarzis and looking for a delicious Italian dining experience, Lamma Food is the place to be! Located at G445+3P4, this cozy eatery serves up authentic pizzas that are sure to satisfy. With a rating of 5.0, this popular pizzeria is a must-visit spot. Open daily from 11:00-23:00, Lamma Food is the perfect spot to indulge in your favorite Italian comfort food. For more details, visit their website at https://www.google.com/maps/place/Lamma+food/data=!4m7!3m6!1s0x13aaefd82dc46393:0x9fc3411497c4ac9a!8m2!3d33.5051399!4d11.1093312!16s%2Fg%2F11ffj2z287!19sChIJk2PELdjvqhMRmqzElxRBw58?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Lamma food, a pizzeria located in Zarzis (33.4992942, 11.1081284), offers delicious pizzas amidst a cozy atmosphere. It's the perfect spot to indulge in a flavorful meal with a loved one.</t>
         </is>
       </c>
     </row>
@@ -7331,7 +7278,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you find yourself in zarzis and searching for a spot to catch a bus, think about exploring Gare de Zarzis situated at Gare de Zarzis. As one of the top-rated places in its category, it boasts a rating of 4.1 and is highly recommended for people who often use public transportation. To get precise directions, make use of these GPS coordinates: 33.43099, 10.96374.</t>
+          <t>The Gare de Zarzis, located at coordinates (33.43099, 10.96374), is a bus stop in Zarzis, Tunisia. It offers convenient transportation options for those in the area and has a rating of 4.1 out of 5 based on 12 reviews. The bus stop is easily accessible and provides a reliable means of getting around the city.</t>
         </is>
       </c>
     </row>
@@ -7422,7 +7369,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in zarzis and looking for a reliable gas station, check out Agence technique de transport terrestre, conveniently located at F4X7+QWH Agence technique de transport terrestre, Zarzis. With a rating of 4.0, it's a top choice for those seeking quality fuel and service. The station is open during regular business hours, but it's always best to call ahead to confirm. For more details, visit their website or call them at the provided phone number.</t>
+          <t>The Agence technique de transport terrestre is a gas station situated in Zarzis, Tunisia. It offers various services such as gas, car repair, and maintenance. Located at 35.7750617 latitude and 10.814715 longitude, the gas station has received a rating of 4.0 based on 2 reviews.</t>
         </is>
       </c>
     </row>
